--- a/fluoresencegraph.xlsx
+++ b/fluoresencegraph.xlsx
@@ -1,49 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27518"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="11_0B1D56BE9CDCCE836B02CE7A5FB0D4A9BBFD1C62" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="191028" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -62,21 +46,80 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -396,13 +439,1300 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A2:F65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="n">
+        <v>2444</v>
+      </c>
+      <c r="C2" t="n">
+        <v>37.94591522216797</v>
+      </c>
+      <c r="D2" t="n">
+        <v>23.95486640930176</v>
+      </c>
+      <c r="E2" t="n">
+        <v>17</v>
+      </c>
+      <c r="F2" t="n">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="n">
+        <v>2444</v>
+      </c>
+      <c r="C3" t="n">
+        <v>45.10995101928711</v>
+      </c>
+      <c r="D3" t="n">
+        <v>33.01466751098633</v>
+      </c>
+      <c r="E3" t="n">
+        <v>15</v>
+      </c>
+      <c r="F3" t="n">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="n">
+        <v>2444</v>
+      </c>
+      <c r="C4" t="n">
+        <v>57.71073532104492</v>
+      </c>
+      <c r="D4" t="n">
+        <v>48.29658889770508</v>
+      </c>
+      <c r="E4" t="n">
+        <v>18</v>
+      </c>
+      <c r="F4" t="n">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="n">
+        <v>2444</v>
+      </c>
+      <c r="C5" t="n">
+        <v>70.20442962646484</v>
+      </c>
+      <c r="D5" t="n">
+        <v>55.23353576660156</v>
+      </c>
+      <c r="E5" t="n">
+        <v>18</v>
+      </c>
+      <c r="F5" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="n">
+        <v>2444</v>
+      </c>
+      <c r="C6" t="n">
+        <v>73.97636413574219</v>
+      </c>
+      <c r="D6" t="n">
+        <v>63.66474914550781</v>
+      </c>
+      <c r="E6" t="n">
+        <v>17</v>
+      </c>
+      <c r="F6" t="n">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="n">
+        <v>2444</v>
+      </c>
+      <c r="C7" t="n">
+        <v>77.52466583251953</v>
+      </c>
+      <c r="D7" t="n">
+        <v>62.68993759155273</v>
+      </c>
+      <c r="E7" t="n">
+        <v>19</v>
+      </c>
+      <c r="F7" t="n">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="n">
+        <v>2444</v>
+      </c>
+      <c r="C8" t="n">
+        <v>73.87419891357422</v>
+      </c>
+      <c r="D8" t="n">
+        <v>56.97157669067383</v>
+      </c>
+      <c r="E8" t="n">
+        <v>17</v>
+      </c>
+      <c r="F8" t="n">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="n">
+        <v>2444</v>
+      </c>
+      <c r="C9" t="n">
+        <v>74.99163818359375</v>
+      </c>
+      <c r="D9" t="n">
+        <v>50.37221908569336</v>
+      </c>
+      <c r="E9" t="n">
+        <v>19</v>
+      </c>
+      <c r="F9" t="n">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="n">
+        <v>2444</v>
+      </c>
+      <c r="C10" t="n">
+        <v>87.84254455566406</v>
+      </c>
+      <c r="D10" t="n">
+        <v>65.58687591552734</v>
+      </c>
+      <c r="E10" t="n">
+        <v>20</v>
+      </c>
+      <c r="F10" t="n">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="n">
+        <v>2444</v>
+      </c>
+      <c r="C11" t="n">
+        <v>87.84294891357422</v>
+      </c>
+      <c r="D11" t="n">
+        <v>62.61366653442383</v>
+      </c>
+      <c r="E11" t="n">
+        <v>19</v>
+      </c>
+      <c r="F11" t="n">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="n">
+        <v>2444</v>
+      </c>
+      <c r="C12" t="n">
+        <v>90.75040435791016</v>
+      </c>
+      <c r="D12" t="n">
+        <v>61.47368240356445</v>
+      </c>
+      <c r="E12" t="n">
+        <v>15</v>
+      </c>
+      <c r="F12" t="n">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="n">
+        <v>2444</v>
+      </c>
+      <c r="C13" t="n">
+        <v>102.5044097900391</v>
+      </c>
+      <c r="D13" t="n">
+        <v>63.60585784912109</v>
+      </c>
+      <c r="E13" t="n">
+        <v>20</v>
+      </c>
+      <c r="F13" t="n">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="n">
+        <v>2444</v>
+      </c>
+      <c r="C14" t="n">
+        <v>130.3097839355469</v>
+      </c>
+      <c r="D14" t="n">
+        <v>79.92885589599609</v>
+      </c>
+      <c r="E14" t="n">
+        <v>25</v>
+      </c>
+      <c r="F14" t="n">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="n">
+        <v>2444</v>
+      </c>
+      <c r="C15" t="n">
+        <v>122.6762847900391</v>
+      </c>
+      <c r="D15" t="n">
+        <v>77.33809661865234</v>
+      </c>
+      <c r="E15" t="n">
+        <v>20</v>
+      </c>
+      <c r="F15" t="n">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="n">
+        <v>2444</v>
+      </c>
+      <c r="C16" t="n">
+        <v>119.5524826049805</v>
+      </c>
+      <c r="D16" t="n">
+        <v>72.28035736083984</v>
+      </c>
+      <c r="E16" t="n">
+        <v>21</v>
+      </c>
+      <c r="F16" t="n">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="n">
+        <v>2444</v>
+      </c>
+      <c r="C17" t="n">
+        <v>130.8978424072266</v>
+      </c>
+      <c r="D17" t="n">
+        <v>70.50202941894531</v>
+      </c>
+      <c r="E17" t="n">
+        <v>23</v>
+      </c>
+      <c r="F17" t="n">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="n">
+        <v>2444</v>
+      </c>
+      <c r="C18" t="n">
+        <v>45.87458038330078</v>
+      </c>
+      <c r="D18" t="n">
+        <v>28.62835884094238</v>
+      </c>
+      <c r="E18" t="n">
+        <v>18</v>
+      </c>
+      <c r="F18" t="n">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="n">
+        <v>2444</v>
+      </c>
+      <c r="C19" t="n">
+        <v>52.97916793823242</v>
+      </c>
+      <c r="D19" t="n">
+        <v>36.37388229370117</v>
+      </c>
+      <c r="E19" t="n">
+        <v>19</v>
+      </c>
+      <c r="F19" t="n">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="n">
+        <v>2444</v>
+      </c>
+      <c r="C20" t="n">
+        <v>59.86458206176758</v>
+      </c>
+      <c r="D20" t="n">
+        <v>45.87820816040039</v>
+      </c>
+      <c r="E20" t="n">
+        <v>15</v>
+      </c>
+      <c r="F20" t="n">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="n">
+        <v>2444</v>
+      </c>
+      <c r="C21" t="n">
+        <v>74.77550506591797</v>
+      </c>
+      <c r="D21" t="n">
+        <v>54.75149917602539</v>
+      </c>
+      <c r="E21" t="n">
+        <v>19</v>
+      </c>
+      <c r="F21" t="n">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="n">
+        <v>2444</v>
+      </c>
+      <c r="C22" t="n">
+        <v>96.07065582275391</v>
+      </c>
+      <c r="D22" t="n">
+        <v>69.87065124511719</v>
+      </c>
+      <c r="E22" t="n">
+        <v>22</v>
+      </c>
+      <c r="F22" t="n">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="n">
+        <v>2444</v>
+      </c>
+      <c r="C23" t="n">
+        <v>104.2901306152344</v>
+      </c>
+      <c r="D23" t="n">
+        <v>72.26953125</v>
+      </c>
+      <c r="E23" t="n">
+        <v>21</v>
+      </c>
+      <c r="F23" t="n">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="n">
+        <v>2444</v>
+      </c>
+      <c r="C24" t="n">
+        <v>114.585334777832</v>
+      </c>
+      <c r="D24" t="n">
+        <v>75.76002502441406</v>
+      </c>
+      <c r="E24" t="n">
+        <v>20</v>
+      </c>
+      <c r="F24" t="n">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="n">
+        <v>2444</v>
+      </c>
+      <c r="C25" t="n">
+        <v>129.9803466796875</v>
+      </c>
+      <c r="D25" t="n">
+        <v>74.62039947509766</v>
+      </c>
+      <c r="E25" t="n">
+        <v>24</v>
+      </c>
+      <c r="F25" t="n">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="n">
+        <v>2444</v>
+      </c>
+      <c r="C26" t="n">
+        <v>128.8252563476562</v>
+      </c>
+      <c r="D26" t="n">
+        <v>79.61917877197266</v>
+      </c>
+      <c r="E26" t="n">
+        <v>24</v>
+      </c>
+      <c r="F26" t="n">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" t="n">
+        <v>2444</v>
+      </c>
+      <c r="C27" t="n">
+        <v>130.3874206542969</v>
+      </c>
+      <c r="D27" t="n">
+        <v>78.34235382080078</v>
+      </c>
+      <c r="E27" t="n">
+        <v>24</v>
+      </c>
+      <c r="F27" t="n">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" t="n">
+        <v>2444</v>
+      </c>
+      <c r="C28" t="n">
+        <v>151.0806884765625</v>
+      </c>
+      <c r="D28" t="n">
+        <v>76.56129455566406</v>
+      </c>
+      <c r="E28" t="n">
+        <v>25</v>
+      </c>
+      <c r="F28" t="n">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" t="n">
+        <v>2444</v>
+      </c>
+      <c r="C29" t="n">
+        <v>160.5133819580078</v>
+      </c>
+      <c r="D29" t="n">
+        <v>72.00818634033203</v>
+      </c>
+      <c r="E29" t="n">
+        <v>28</v>
+      </c>
+      <c r="F29" t="n">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" t="n">
+        <v>2444</v>
+      </c>
+      <c r="C30" t="n">
+        <v>148.1170501708984</v>
+      </c>
+      <c r="D30" t="n">
+        <v>82.26846313476562</v>
+      </c>
+      <c r="E30" t="n">
+        <v>26</v>
+      </c>
+      <c r="F30" t="n">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" t="n">
+        <v>2444</v>
+      </c>
+      <c r="C31" t="n">
+        <v>153.6153869628906</v>
+      </c>
+      <c r="D31" t="n">
+        <v>79.1373291015625</v>
+      </c>
+      <c r="E31" t="n">
+        <v>29</v>
+      </c>
+      <c r="F31" t="n">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" t="n">
+        <v>2444</v>
+      </c>
+      <c r="C32" t="n">
+        <v>166.9042663574219</v>
+      </c>
+      <c r="D32" t="n">
+        <v>74.79769897460938</v>
+      </c>
+      <c r="E32" t="n">
+        <v>27</v>
+      </c>
+      <c r="F32" t="n">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" t="n">
+        <v>2444</v>
+      </c>
+      <c r="C33" t="n">
+        <v>181.1989898681641</v>
+      </c>
+      <c r="D33" t="n">
+        <v>68.45119476318359</v>
+      </c>
+      <c r="E33" t="n">
+        <v>28</v>
+      </c>
+      <c r="F33" t="n">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" t="n">
+        <v>2444</v>
+      </c>
+      <c r="C34" t="n">
+        <v>38.48998260498047</v>
+      </c>
+      <c r="D34" t="n">
+        <v>24.46327590942383</v>
+      </c>
+      <c r="E34" t="n">
+        <v>18</v>
+      </c>
+      <c r="F34" t="n">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" t="n">
+        <v>2444</v>
+      </c>
+      <c r="C35" t="n">
+        <v>44.81290054321289</v>
+      </c>
+      <c r="D35" t="n">
+        <v>33.70893478393555</v>
+      </c>
+      <c r="E35" t="n">
+        <v>18</v>
+      </c>
+      <c r="F35" t="n">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" t="n">
+        <v>2444</v>
+      </c>
+      <c r="C36" t="n">
+        <v>57.89463043212891</v>
+      </c>
+      <c r="D36" t="n">
+        <v>50.75503158569336</v>
+      </c>
+      <c r="E36" t="n">
+        <v>16</v>
+      </c>
+      <c r="F36" t="n">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" t="n">
+        <v>2444</v>
+      </c>
+      <c r="C37" t="n">
+        <v>69.17140197753906</v>
+      </c>
+      <c r="D37" t="n">
+        <v>60.72906494140625</v>
+      </c>
+      <c r="E37" t="n">
+        <v>16</v>
+      </c>
+      <c r="F37" t="n">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" t="n">
+        <v>2444</v>
+      </c>
+      <c r="C38" t="n">
+        <v>67.30007934570312</v>
+      </c>
+      <c r="D38" t="n">
+        <v>56.67341613769531</v>
+      </c>
+      <c r="E38" t="n">
+        <v>20</v>
+      </c>
+      <c r="F38" t="n">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" t="n">
+        <v>2444</v>
+      </c>
+      <c r="C39" t="n">
+        <v>68.27764129638672</v>
+      </c>
+      <c r="D39" t="n">
+        <v>56.70933151245117</v>
+      </c>
+      <c r="E39" t="n">
+        <v>18</v>
+      </c>
+      <c r="F39" t="n">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" t="n">
+        <v>2444</v>
+      </c>
+      <c r="C40" t="n">
+        <v>75.95819091796875</v>
+      </c>
+      <c r="D40" t="n">
+        <v>59.83996963500977</v>
+      </c>
+      <c r="E40" t="n">
+        <v>18</v>
+      </c>
+      <c r="F40" t="n">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" t="n">
+        <v>2444</v>
+      </c>
+      <c r="C41" t="n">
+        <v>76.00669097900391</v>
+      </c>
+      <c r="D41" t="n">
+        <v>57.88066482543945</v>
+      </c>
+      <c r="E41" t="n">
+        <v>19</v>
+      </c>
+      <c r="F41" t="n">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" t="n">
+        <v>2444</v>
+      </c>
+      <c r="C42" t="n">
+        <v>81.77466583251953</v>
+      </c>
+      <c r="D42" t="n">
+        <v>60.16603088378906</v>
+      </c>
+      <c r="E42" t="n">
+        <v>20</v>
+      </c>
+      <c r="F42" t="n">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" t="n">
+        <v>2444</v>
+      </c>
+      <c r="C43" t="n">
+        <v>91.24919891357422</v>
+      </c>
+      <c r="D43" t="n">
+        <v>65.78717803955078</v>
+      </c>
+      <c r="E43" t="n">
+        <v>22</v>
+      </c>
+      <c r="F43" t="n">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" t="n">
+        <v>2444</v>
+      </c>
+      <c r="C44" t="n">
+        <v>104.0048065185547</v>
+      </c>
+      <c r="D44" t="n">
+        <v>72.22945404052734</v>
+      </c>
+      <c r="E44" t="n">
+        <v>23</v>
+      </c>
+      <c r="F44" t="n">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" t="n">
+        <v>2444</v>
+      </c>
+      <c r="C45" t="n">
+        <v>115.6282043457031</v>
+      </c>
+      <c r="D45" t="n">
+        <v>77.91567993164062</v>
+      </c>
+      <c r="E45" t="n">
+        <v>23</v>
+      </c>
+      <c r="F45" t="n">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" t="n">
+        <v>2444</v>
+      </c>
+      <c r="C46" t="n">
+        <v>114.8717956542969</v>
+      </c>
+      <c r="D46" t="n">
+        <v>76.61248016357422</v>
+      </c>
+      <c r="E46" t="n">
+        <v>25</v>
+      </c>
+      <c r="F46" t="n">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" t="n">
+        <v>2444</v>
+      </c>
+      <c r="C47" t="n">
+        <v>132.1153869628906</v>
+      </c>
+      <c r="D47" t="n">
+        <v>79.06946563720703</v>
+      </c>
+      <c r="E47" t="n">
+        <v>27</v>
+      </c>
+      <c r="F47" t="n">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" t="n">
+        <v>2444</v>
+      </c>
+      <c r="C48" t="n">
+        <v>136.5048065185547</v>
+      </c>
+      <c r="D48" t="n">
+        <v>82.28484344482422</v>
+      </c>
+      <c r="E48" t="n">
+        <v>27</v>
+      </c>
+      <c r="F48" t="n">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" t="n">
+        <v>2444</v>
+      </c>
+      <c r="C49" t="n">
+        <v>142.9306030273438</v>
+      </c>
+      <c r="D49" t="n">
+        <v>81.36528778076172</v>
+      </c>
+      <c r="E49" t="n">
+        <v>28</v>
+      </c>
+      <c r="F49" t="n">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" t="n">
+        <v>2444</v>
+      </c>
+      <c r="C50" t="n">
+        <v>44.47909545898438</v>
+      </c>
+      <c r="D50" t="n">
+        <v>29.0131950378418</v>
+      </c>
+      <c r="E50" t="n">
+        <v>18</v>
+      </c>
+      <c r="F50" t="n">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>50</v>
+      </c>
+      <c r="B51" t="n">
+        <v>2444</v>
+      </c>
+      <c r="C51" t="n">
+        <v>54.80267715454102</v>
+      </c>
+      <c r="D51" t="n">
+        <v>40.20783615112305</v>
+      </c>
+      <c r="E51" t="n">
+        <v>20</v>
+      </c>
+      <c r="F51" t="n">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>51</v>
+      </c>
+      <c r="B52" t="n">
+        <v>2444</v>
+      </c>
+      <c r="C52" t="n">
+        <v>65.68068695068359</v>
+      </c>
+      <c r="D52" t="n">
+        <v>53.44828414916992</v>
+      </c>
+      <c r="E52" t="n">
+        <v>19</v>
+      </c>
+      <c r="F52" t="n">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>52</v>
+      </c>
+      <c r="B53" t="n">
+        <v>2444</v>
+      </c>
+      <c r="C53" t="n">
+        <v>76.43990325927734</v>
+      </c>
+      <c r="D53" t="n">
+        <v>62.74617385864258</v>
+      </c>
+      <c r="E53" t="n">
+        <v>12</v>
+      </c>
+      <c r="F53" t="n">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>53</v>
+      </c>
+      <c r="B54" t="n">
+        <v>2444</v>
+      </c>
+      <c r="C54" t="n">
+        <v>85.98035430908203</v>
+      </c>
+      <c r="D54" t="n">
+        <v>64.63962554931641</v>
+      </c>
+      <c r="E54" t="n">
+        <v>21</v>
+      </c>
+      <c r="F54" t="n">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>54</v>
+      </c>
+      <c r="B55" t="n">
+        <v>2444</v>
+      </c>
+      <c r="C55" t="n">
+        <v>94.24038696289062</v>
+      </c>
+      <c r="D55" t="n">
+        <v>69.07639312744141</v>
+      </c>
+      <c r="E55" t="n">
+        <v>23</v>
+      </c>
+      <c r="F55" t="n">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>55</v>
+      </c>
+      <c r="B56" t="n">
+        <v>2444</v>
+      </c>
+      <c r="C56" t="n">
+        <v>103.1266708374023</v>
+      </c>
+      <c r="D56" t="n">
+        <v>72.67947387695312</v>
+      </c>
+      <c r="E56" t="n">
+        <v>22</v>
+      </c>
+      <c r="F56" t="n">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>56</v>
+      </c>
+      <c r="B57" t="n">
+        <v>2444</v>
+      </c>
+      <c r="C57" t="n">
+        <v>109.4186706542969</v>
+      </c>
+      <c r="D57" t="n">
+        <v>75.65290069580078</v>
+      </c>
+      <c r="E57" t="n">
+        <v>23</v>
+      </c>
+      <c r="F57" t="n">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>57</v>
+      </c>
+      <c r="B58" t="n">
+        <v>2444</v>
+      </c>
+      <c r="C58" t="n">
+        <v>116.6542663574219</v>
+      </c>
+      <c r="D58" t="n">
+        <v>78.342529296875</v>
+      </c>
+      <c r="E58" t="n">
+        <v>27</v>
+      </c>
+      <c r="F58" t="n">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>58</v>
+      </c>
+      <c r="B59" t="n">
+        <v>2444</v>
+      </c>
+      <c r="C59" t="n">
+        <v>123.5480804443359</v>
+      </c>
+      <c r="D59" t="n">
+        <v>81.13218688964844</v>
+      </c>
+      <c r="E59" t="n">
+        <v>25</v>
+      </c>
+      <c r="F59" t="n">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>59</v>
+      </c>
+      <c r="B60" t="n">
+        <v>2444</v>
+      </c>
+      <c r="C60" t="n">
+        <v>131.5584869384766</v>
+      </c>
+      <c r="D60" t="n">
+        <v>82.76753234863281</v>
+      </c>
+      <c r="E60" t="n">
+        <v>26</v>
+      </c>
+      <c r="F60" t="n">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>60</v>
+      </c>
+      <c r="B61" t="n">
+        <v>2444</v>
+      </c>
+      <c r="C61" t="n">
+        <v>138.8837738037109</v>
+      </c>
+      <c r="D61" t="n">
+        <v>80.88831329345703</v>
+      </c>
+      <c r="E61" t="n">
+        <v>24</v>
+      </c>
+      <c r="F61" t="n">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>61</v>
+      </c>
+      <c r="B62" t="n">
+        <v>2444</v>
+      </c>
+      <c r="C62" t="n">
+        <v>144.0267486572266</v>
+      </c>
+      <c r="D62" t="n">
+        <v>83.16629791259766</v>
+      </c>
+      <c r="E62" t="n">
+        <v>28</v>
+      </c>
+      <c r="F62" t="n">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>62</v>
+      </c>
+      <c r="B63" t="n">
+        <v>2444</v>
+      </c>
+      <c r="C63" t="n">
+        <v>143.8265228271484</v>
+      </c>
+      <c r="D63" t="n">
+        <v>83.83939361572266</v>
+      </c>
+      <c r="E63" t="n">
+        <v>29</v>
+      </c>
+      <c r="F63" t="n">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>63</v>
+      </c>
+      <c r="B64" t="n">
+        <v>2444</v>
+      </c>
+      <c r="C64" t="n">
+        <v>148.3341369628906</v>
+      </c>
+      <c r="D64" t="n">
+        <v>83.61933135986328</v>
+      </c>
+      <c r="E64" t="n">
+        <v>23</v>
+      </c>
+      <c r="F64" t="n">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>64</v>
+      </c>
+      <c r="B65" t="n">
+        <v>2444</v>
+      </c>
+      <c r="C65" t="n">
+        <v>152.527587890625</v>
+      </c>
+      <c r="D65" t="n">
+        <v>82.25044250488281</v>
+      </c>
+      <c r="E65" t="n">
+        <v>29</v>
+      </c>
+      <c r="F65" t="n">
+        <v>255</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/fluoresencegraph.xlsx
+++ b/fluoresencegraph.xlsx
@@ -1,49 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27518"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="11_0B1D56BE9CDCCE836B02CE7A5FB0D4A9BBFD1C62" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="191028" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -62,21 +46,80 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -396,13 +439,1360 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A2:F68"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="n">
+        <v>2444</v>
+      </c>
+      <c r="C2" t="n">
+        <v>37.93269348144531</v>
+      </c>
+      <c r="D2" t="n">
+        <v>23.96425628662109</v>
+      </c>
+      <c r="E2" t="n">
+        <v>17</v>
+      </c>
+      <c r="F2" t="n">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="n">
+        <v>2444</v>
+      </c>
+      <c r="C3" t="n">
+        <v>44.14342880249023</v>
+      </c>
+      <c r="D3" t="n">
+        <v>32.6514892578125</v>
+      </c>
+      <c r="E3" t="n">
+        <v>15</v>
+      </c>
+      <c r="F3" t="n">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="n">
+        <v>2444</v>
+      </c>
+      <c r="C4" t="n">
+        <v>59.27299499511719</v>
+      </c>
+      <c r="D4" t="n">
+        <v>48.73773956298828</v>
+      </c>
+      <c r="E4" t="n">
+        <v>18</v>
+      </c>
+      <c r="F4" t="n">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="n">
+        <v>2444</v>
+      </c>
+      <c r="C5" t="n">
+        <v>68.25801086425781</v>
+      </c>
+      <c r="D5" t="n">
+        <v>54.8709716796875</v>
+      </c>
+      <c r="E5" t="n">
+        <v>18</v>
+      </c>
+      <c r="F5" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="n">
+        <v>2444</v>
+      </c>
+      <c r="C6" t="n">
+        <v>76.17015075683594</v>
+      </c>
+      <c r="D6" t="n">
+        <v>64.13785552978516</v>
+      </c>
+      <c r="E6" t="n">
+        <v>19</v>
+      </c>
+      <c r="F6" t="n">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="n">
+        <v>2444</v>
+      </c>
+      <c r="C7" t="n">
+        <v>77.56647491455078</v>
+      </c>
+      <c r="D7" t="n">
+        <v>62.65641403198242</v>
+      </c>
+      <c r="E7" t="n">
+        <v>17</v>
+      </c>
+      <c r="F7" t="n">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="n">
+        <v>2444</v>
+      </c>
+      <c r="C8" t="n">
+        <v>73.88421630859375</v>
+      </c>
+      <c r="D8" t="n">
+        <v>56.96310043334961</v>
+      </c>
+      <c r="E8" t="n">
+        <v>17</v>
+      </c>
+      <c r="F8" t="n">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="n">
+        <v>2444</v>
+      </c>
+      <c r="C9" t="n">
+        <v>73.14423370361328</v>
+      </c>
+      <c r="D9" t="n">
+        <v>50.09932327270508</v>
+      </c>
+      <c r="E9" t="n">
+        <v>19</v>
+      </c>
+      <c r="F9" t="n">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="n">
+        <v>2444</v>
+      </c>
+      <c r="C10" t="n">
+        <v>87.81410217285156</v>
+      </c>
+      <c r="D10" t="n">
+        <v>65.61071014404297</v>
+      </c>
+      <c r="E10" t="n">
+        <v>20</v>
+      </c>
+      <c r="F10" t="n">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="n">
+        <v>2444</v>
+      </c>
+      <c r="C11" t="n">
+        <v>88.08293151855469</v>
+      </c>
+      <c r="D11" t="n">
+        <v>62.38949203491211</v>
+      </c>
+      <c r="E11" t="n">
+        <v>20</v>
+      </c>
+      <c r="F11" t="n">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="n">
+        <v>2444</v>
+      </c>
+      <c r="C12" t="n">
+        <v>90.75040435791016</v>
+      </c>
+      <c r="D12" t="n">
+        <v>61.47368240356445</v>
+      </c>
+      <c r="E12" t="n">
+        <v>15</v>
+      </c>
+      <c r="F12" t="n">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="n">
+        <v>2444</v>
+      </c>
+      <c r="C13" t="n">
+        <v>105.9611206054688</v>
+      </c>
+      <c r="D13" t="n">
+        <v>62.74478912353516</v>
+      </c>
+      <c r="E13" t="n">
+        <v>21</v>
+      </c>
+      <c r="F13" t="n">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="n">
+        <v>2444</v>
+      </c>
+      <c r="C14" t="n">
+        <v>130.3783416748047</v>
+      </c>
+      <c r="D14" t="n">
+        <v>79.84836578369141</v>
+      </c>
+      <c r="E14" t="n">
+        <v>25</v>
+      </c>
+      <c r="F14" t="n">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="n">
+        <v>2444</v>
+      </c>
+      <c r="C15" t="n">
+        <v>126.2901306152344</v>
+      </c>
+      <c r="D15" t="n">
+        <v>76.961181640625</v>
+      </c>
+      <c r="E15" t="n">
+        <v>20</v>
+      </c>
+      <c r="F15" t="n">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="n">
+        <v>2444</v>
+      </c>
+      <c r="C16" t="n">
+        <v>119.6318130493164</v>
+      </c>
+      <c r="D16" t="n">
+        <v>72.21533203125</v>
+      </c>
+      <c r="E16" t="n">
+        <v>22</v>
+      </c>
+      <c r="F16" t="n">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="n">
+        <v>2444</v>
+      </c>
+      <c r="C17" t="n">
+        <v>135.1153869628906</v>
+      </c>
+      <c r="D17" t="n">
+        <v>68.97154235839844</v>
+      </c>
+      <c r="E17" t="n">
+        <v>23</v>
+      </c>
+      <c r="F17" t="n">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="n">
+        <v>2444</v>
+      </c>
+      <c r="C18" t="n">
+        <v>45.87458038330078</v>
+      </c>
+      <c r="D18" t="n">
+        <v>28.62835884094238</v>
+      </c>
+      <c r="E18" t="n">
+        <v>18</v>
+      </c>
+      <c r="F18" t="n">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="n">
+        <v>2444</v>
+      </c>
+      <c r="C19" t="n">
+        <v>52.98597717285156</v>
+      </c>
+      <c r="D19" t="n">
+        <v>36.36932373046875</v>
+      </c>
+      <c r="E19" t="n">
+        <v>19</v>
+      </c>
+      <c r="F19" t="n">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="n">
+        <v>2444</v>
+      </c>
+      <c r="C20" t="n">
+        <v>59.86458206176758</v>
+      </c>
+      <c r="D20" t="n">
+        <v>45.87820816040039</v>
+      </c>
+      <c r="E20" t="n">
+        <v>15</v>
+      </c>
+      <c r="F20" t="n">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="n">
+        <v>2444</v>
+      </c>
+      <c r="C21" t="n">
+        <v>74.74414825439453</v>
+      </c>
+      <c r="D21" t="n">
+        <v>54.78022384643555</v>
+      </c>
+      <c r="E21" t="n">
+        <v>19</v>
+      </c>
+      <c r="F21" t="n">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="n">
+        <v>2444</v>
+      </c>
+      <c r="C22" t="n">
+        <v>93.40064239501953</v>
+      </c>
+      <c r="D22" t="n">
+        <v>69.59490203857422</v>
+      </c>
+      <c r="E22" t="n">
+        <v>22</v>
+      </c>
+      <c r="F22" t="n">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="n">
+        <v>2444</v>
+      </c>
+      <c r="C23" t="n">
+        <v>104.2926406860352</v>
+      </c>
+      <c r="D23" t="n">
+        <v>72.26766967773438</v>
+      </c>
+      <c r="E23" t="n">
+        <v>20</v>
+      </c>
+      <c r="F23" t="n">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="n">
+        <v>2444</v>
+      </c>
+      <c r="C24" t="n">
+        <v>118.1902160644531</v>
+      </c>
+      <c r="D24" t="n">
+        <v>75.33914184570312</v>
+      </c>
+      <c r="E24" t="n">
+        <v>22</v>
+      </c>
+      <c r="F24" t="n">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="n">
+        <v>2444</v>
+      </c>
+      <c r="C25" t="n">
+        <v>129.9076080322266</v>
+      </c>
+      <c r="D25" t="n">
+        <v>74.69510650634766</v>
+      </c>
+      <c r="E25" t="n">
+        <v>24</v>
+      </c>
+      <c r="F25" t="n">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="n">
+        <v>2444</v>
+      </c>
+      <c r="C26" t="n">
+        <v>125.2171478271484</v>
+      </c>
+      <c r="D26" t="n">
+        <v>79.86217498779297</v>
+      </c>
+      <c r="E26" t="n">
+        <v>24</v>
+      </c>
+      <c r="F26" t="n">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" t="n">
+        <v>2444</v>
+      </c>
+      <c r="C27" t="n">
+        <v>130.3874206542969</v>
+      </c>
+      <c r="D27" t="n">
+        <v>78.34235382080078</v>
+      </c>
+      <c r="E27" t="n">
+        <v>24</v>
+      </c>
+      <c r="F27" t="n">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" t="n">
+        <v>2444</v>
+      </c>
+      <c r="C28" t="n">
+        <v>146.6205902099609</v>
+      </c>
+      <c r="D28" t="n">
+        <v>78.01580047607422</v>
+      </c>
+      <c r="E28" t="n">
+        <v>24</v>
+      </c>
+      <c r="F28" t="n">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" t="n">
+        <v>2444</v>
+      </c>
+      <c r="C29" t="n">
+        <v>155.7864532470703</v>
+      </c>
+      <c r="D29" t="n">
+        <v>74.1146240234375</v>
+      </c>
+      <c r="E29" t="n">
+        <v>26</v>
+      </c>
+      <c r="F29" t="n">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" t="n">
+        <v>2444</v>
+      </c>
+      <c r="C30" t="n">
+        <v>143.8257141113281</v>
+      </c>
+      <c r="D30" t="n">
+        <v>83.16542816162109</v>
+      </c>
+      <c r="E30" t="n">
+        <v>26</v>
+      </c>
+      <c r="F30" t="n">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" t="n">
+        <v>2444</v>
+      </c>
+      <c r="C31" t="n">
+        <v>153.6153869628906</v>
+      </c>
+      <c r="D31" t="n">
+        <v>79.1373291015625</v>
+      </c>
+      <c r="E31" t="n">
+        <v>29</v>
+      </c>
+      <c r="F31" t="n">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" t="n">
+        <v>2444</v>
+      </c>
+      <c r="C32" t="n">
+        <v>162.443115234375</v>
+      </c>
+      <c r="D32" t="n">
+        <v>76.507080078125</v>
+      </c>
+      <c r="E32" t="n">
+        <v>25</v>
+      </c>
+      <c r="F32" t="n">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" t="n">
+        <v>2444</v>
+      </c>
+      <c r="C33" t="n">
+        <v>180.4657135009766</v>
+      </c>
+      <c r="D33" t="n">
+        <v>69.37908935546875</v>
+      </c>
+      <c r="E33" t="n">
+        <v>27</v>
+      </c>
+      <c r="F33" t="n">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" t="n">
+        <v>2444</v>
+      </c>
+      <c r="C34" t="n">
+        <v>39.16931533813477</v>
+      </c>
+      <c r="D34" t="n">
+        <v>24.76123809814453</v>
+      </c>
+      <c r="E34" t="n">
+        <v>18</v>
+      </c>
+      <c r="F34" t="n">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" t="n">
+        <v>2444</v>
+      </c>
+      <c r="C35" t="n">
+        <v>45.7667236328125</v>
+      </c>
+      <c r="D35" t="n">
+        <v>34.114501953125</v>
+      </c>
+      <c r="E35" t="n">
+        <v>18</v>
+      </c>
+      <c r="F35" t="n">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" t="n">
+        <v>2444</v>
+      </c>
+      <c r="C36" t="n">
+        <v>57.92868423461914</v>
+      </c>
+      <c r="D36" t="n">
+        <v>50.7322883605957</v>
+      </c>
+      <c r="E36" t="n">
+        <v>16</v>
+      </c>
+      <c r="F36" t="n">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" t="n">
+        <v>2444</v>
+      </c>
+      <c r="C37" t="n">
+        <v>67.27404022216797</v>
+      </c>
+      <c r="D37" t="n">
+        <v>60.14346313476562</v>
+      </c>
+      <c r="E37" t="n">
+        <v>16</v>
+      </c>
+      <c r="F37" t="n">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" t="n">
+        <v>2444</v>
+      </c>
+      <c r="C38" t="n">
+        <v>69.10493469238281</v>
+      </c>
+      <c r="D38" t="n">
+        <v>57.20450592041016</v>
+      </c>
+      <c r="E38" t="n">
+        <v>20</v>
+      </c>
+      <c r="F38" t="n">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" t="n">
+        <v>2444</v>
+      </c>
+      <c r="C39" t="n">
+        <v>70.21279144287109</v>
+      </c>
+      <c r="D39" t="n">
+        <v>57.14777374267578</v>
+      </c>
+      <c r="E39" t="n">
+        <v>18</v>
+      </c>
+      <c r="F39" t="n">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" t="n">
+        <v>2444</v>
+      </c>
+      <c r="C40" t="n">
+        <v>73.91546630859375</v>
+      </c>
+      <c r="D40" t="n">
+        <v>59.39558792114258</v>
+      </c>
+      <c r="E40" t="n">
+        <v>18</v>
+      </c>
+      <c r="F40" t="n">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" t="n">
+        <v>2444</v>
+      </c>
+      <c r="C41" t="n">
+        <v>73.9346923828125</v>
+      </c>
+      <c r="D41" t="n">
+        <v>57.52985763549805</v>
+      </c>
+      <c r="E41" t="n">
+        <v>19</v>
+      </c>
+      <c r="F41" t="n">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" t="n">
+        <v>2444</v>
+      </c>
+      <c r="C42" t="n">
+        <v>79.66426086425781</v>
+      </c>
+      <c r="D42" t="n">
+        <v>59.77988815307617</v>
+      </c>
+      <c r="E42" t="n">
+        <v>20</v>
+      </c>
+      <c r="F42" t="n">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" t="n">
+        <v>2444</v>
+      </c>
+      <c r="C43" t="n">
+        <v>93.97324371337891</v>
+      </c>
+      <c r="D43" t="n">
+        <v>65.86212158203125</v>
+      </c>
+      <c r="E43" t="n">
+        <v>22</v>
+      </c>
+      <c r="F43" t="n">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" t="n">
+        <v>2444</v>
+      </c>
+      <c r="C44" t="n">
+        <v>104.0328521728516</v>
+      </c>
+      <c r="D44" t="n">
+        <v>72.20059967041016</v>
+      </c>
+      <c r="E44" t="n">
+        <v>22</v>
+      </c>
+      <c r="F44" t="n">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" t="n">
+        <v>2444</v>
+      </c>
+      <c r="C45" t="n">
+        <v>119.3072738647461</v>
+      </c>
+      <c r="D45" t="n">
+        <v>77.51615905761719</v>
+      </c>
+      <c r="E45" t="n">
+        <v>24</v>
+      </c>
+      <c r="F45" t="n">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" t="n">
+        <v>2444</v>
+      </c>
+      <c r="C46" t="n">
+        <v>118.3357009887695</v>
+      </c>
+      <c r="D46" t="n">
+        <v>76.38434600830078</v>
+      </c>
+      <c r="E46" t="n">
+        <v>25</v>
+      </c>
+      <c r="F46" t="n">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" t="n">
+        <v>2444</v>
+      </c>
+      <c r="C47" t="n">
+        <v>132.1153869628906</v>
+      </c>
+      <c r="D47" t="n">
+        <v>79.06946563720703</v>
+      </c>
+      <c r="E47" t="n">
+        <v>27</v>
+      </c>
+      <c r="F47" t="n">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" t="n">
+        <v>2444</v>
+      </c>
+      <c r="C48" t="n">
+        <v>136.5973510742188</v>
+      </c>
+      <c r="D48" t="n">
+        <v>82.17780303955078</v>
+      </c>
+      <c r="E48" t="n">
+        <v>27</v>
+      </c>
+      <c r="F48" t="n">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" t="n">
+        <v>2444</v>
+      </c>
+      <c r="C49" t="n">
+        <v>143.0656280517578</v>
+      </c>
+      <c r="D49" t="n">
+        <v>81.21427917480469</v>
+      </c>
+      <c r="E49" t="n">
+        <v>26</v>
+      </c>
+      <c r="F49" t="n">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" t="n">
+        <v>2444</v>
+      </c>
+      <c r="C50" t="n">
+        <v>43.7612190246582</v>
+      </c>
+      <c r="D50" t="n">
+        <v>28.6034984588623</v>
+      </c>
+      <c r="E50" t="n">
+        <v>18</v>
+      </c>
+      <c r="F50" t="n">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>50</v>
+      </c>
+      <c r="B51" t="n">
+        <v>2444</v>
+      </c>
+      <c r="C51" t="n">
+        <v>54.844482421875</v>
+      </c>
+      <c r="D51" t="n">
+        <v>40.17781448364258</v>
+      </c>
+      <c r="E51" t="n">
+        <v>20</v>
+      </c>
+      <c r="F51" t="n">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>51</v>
+      </c>
+      <c r="B52" t="n">
+        <v>2444</v>
+      </c>
+      <c r="C52" t="n">
+        <v>65.65184020996094</v>
+      </c>
+      <c r="D52" t="n">
+        <v>53.47033309936523</v>
+      </c>
+      <c r="E52" t="n">
+        <v>19</v>
+      </c>
+      <c r="F52" t="n">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>52</v>
+      </c>
+      <c r="B53" t="n">
+        <v>2444</v>
+      </c>
+      <c r="C53" t="n">
+        <v>78.52382659912109</v>
+      </c>
+      <c r="D53" t="n">
+        <v>63.21332931518555</v>
+      </c>
+      <c r="E53" t="n">
+        <v>21</v>
+      </c>
+      <c r="F53" t="n">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>53</v>
+      </c>
+      <c r="B54" t="n">
+        <v>2444</v>
+      </c>
+      <c r="C54" t="n">
+        <v>83.61939239501953</v>
+      </c>
+      <c r="D54" t="n">
+        <v>64.28656005859375</v>
+      </c>
+      <c r="E54" t="n">
+        <v>21</v>
+      </c>
+      <c r="F54" t="n">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>54</v>
+      </c>
+      <c r="B55" t="n">
+        <v>2444</v>
+      </c>
+      <c r="C55" t="n">
+        <v>94.24038696289062</v>
+      </c>
+      <c r="D55" t="n">
+        <v>69.07639312744141</v>
+      </c>
+      <c r="E55" t="n">
+        <v>23</v>
+      </c>
+      <c r="F55" t="n">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>55</v>
+      </c>
+      <c r="B56" t="n">
+        <v>2444</v>
+      </c>
+      <c r="C56" t="n">
+        <v>100.2267608642578</v>
+      </c>
+      <c r="D56" t="n">
+        <v>72.50559234619141</v>
+      </c>
+      <c r="E56" t="n">
+        <v>22</v>
+      </c>
+      <c r="F56" t="n">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>56</v>
+      </c>
+      <c r="B57" t="n">
+        <v>2444</v>
+      </c>
+      <c r="C57" t="n">
+        <v>112.6601181030273</v>
+      </c>
+      <c r="D57" t="n">
+        <v>75.61989593505859</v>
+      </c>
+      <c r="E57" t="n">
+        <v>25</v>
+      </c>
+      <c r="F57" t="n">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>57</v>
+      </c>
+      <c r="B58" t="n">
+        <v>2444</v>
+      </c>
+      <c r="C58" t="n">
+        <v>116.7056884765625</v>
+      </c>
+      <c r="D58" t="n">
+        <v>78.28775787353516</v>
+      </c>
+      <c r="E58" t="n">
+        <v>26</v>
+      </c>
+      <c r="F58" t="n">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>58</v>
+      </c>
+      <c r="B59" t="n">
+        <v>2444</v>
+      </c>
+      <c r="C59" t="n">
+        <v>127.1045150756836</v>
+      </c>
+      <c r="D59" t="n">
+        <v>80.99520874023438</v>
+      </c>
+      <c r="E59" t="n">
+        <v>27</v>
+      </c>
+      <c r="F59" t="n">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>59</v>
+      </c>
+      <c r="B60" t="n">
+        <v>2444</v>
+      </c>
+      <c r="C60" t="n">
+        <v>135.3206481933594</v>
+      </c>
+      <c r="D60" t="n">
+        <v>82.45884704589844</v>
+      </c>
+      <c r="E60" t="n">
+        <v>29</v>
+      </c>
+      <c r="F60" t="n">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>60</v>
+      </c>
+      <c r="B61" t="n">
+        <v>2444</v>
+      </c>
+      <c r="C61" t="n">
+        <v>134.8573760986328</v>
+      </c>
+      <c r="D61" t="n">
+        <v>81.53482055664062</v>
+      </c>
+      <c r="E61" t="n">
+        <v>24</v>
+      </c>
+      <c r="F61" t="n">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>61</v>
+      </c>
+      <c r="B62" t="n">
+        <v>2444</v>
+      </c>
+      <c r="C62" t="n">
+        <v>144.0267486572266</v>
+      </c>
+      <c r="D62" t="n">
+        <v>83.16629791259766</v>
+      </c>
+      <c r="E62" t="n">
+        <v>28</v>
+      </c>
+      <c r="F62" t="n">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>62</v>
+      </c>
+      <c r="B63" t="n">
+        <v>2444</v>
+      </c>
+      <c r="C63" t="n">
+        <v>148.0267486572266</v>
+      </c>
+      <c r="D63" t="n">
+        <v>83.11077117919922</v>
+      </c>
+      <c r="E63" t="n">
+        <v>27</v>
+      </c>
+      <c r="F63" t="n">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>63</v>
+      </c>
+      <c r="B64" t="n">
+        <v>2444</v>
+      </c>
+      <c r="C64" t="n">
+        <v>148.4775695800781</v>
+      </c>
+      <c r="D64" t="n">
+        <v>83.46604156494141</v>
+      </c>
+      <c r="E64" t="n">
+        <v>27</v>
+      </c>
+      <c r="F64" t="n">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>64</v>
+      </c>
+      <c r="B65" t="n">
+        <v>2444</v>
+      </c>
+      <c r="C65" t="n">
+        <v>152.4343719482422</v>
+      </c>
+      <c r="D65" t="n">
+        <v>82.37471771240234</v>
+      </c>
+      <c r="E65" t="n">
+        <v>29</v>
+      </c>
+      <c r="F65" t="n">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>65</v>
+      </c>
+      <c r="B66" t="n">
+        <v>2444</v>
+      </c>
+      <c r="C66" t="n">
+        <v>20.5413875579834</v>
+      </c>
+      <c r="D66" t="n">
+        <v>1.02679455280304</v>
+      </c>
+      <c r="E66" t="n">
+        <v>17</v>
+      </c>
+      <c r="F66" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>66</v>
+      </c>
+      <c r="B67" t="n">
+        <v>2444</v>
+      </c>
+      <c r="C67" t="n">
+        <v>20.68389511108398</v>
+      </c>
+      <c r="D67" t="n">
+        <v>1.20089316368103</v>
+      </c>
+      <c r="E67" t="n">
+        <v>16</v>
+      </c>
+      <c r="F67" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>67</v>
+      </c>
+      <c r="B68" t="n">
+        <v>2444</v>
+      </c>
+      <c r="C68" t="n">
+        <v>22.37139511108398</v>
+      </c>
+      <c r="D68" t="n">
+        <v>1.133464813232422</v>
+      </c>
+      <c r="E68" t="n">
+        <v>18</v>
+      </c>
+      <c r="F68" t="n">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>